--- a/eval/gpt-4-eval/gpt_4_scores.xlsx
+++ b/eval/gpt-4-eval/gpt_4_scores.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="273">
   <si>
     <t>question index</t>
   </si>
@@ -79,6 +79,36 @@
     <t>Q15</t>
   </si>
   <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
     <t>Average</t>
   </si>
   <si>
@@ -151,6 +181,36 @@
     <t>What is the total projected appropriation on programs for people with development disabilities in FY 2026?</t>
   </si>
   <si>
+    <t>What are the benefits of the ITS Telecommuting Program?</t>
+  </si>
+  <si>
+    <t>How long does an employee have to request a review by the Telecommuting Appeal board if their Telecommuting application has been denied.</t>
+  </si>
+  <si>
+    <t>How soon can an employee reapply for the Telecommuting Program after they have been removed.</t>
+  </si>
+  <si>
+    <t>What is the elibility criteria for the ITS Telecommuting program?</t>
+  </si>
+  <si>
+    <t>What are the types of telecommuting for ITS employees?</t>
+  </si>
+  <si>
+    <t>When will the ITS Telecommuting program end?</t>
+  </si>
+  <si>
+    <t>Who determines which ITS jobs be part of the Telecommuting Program?</t>
+  </si>
+  <si>
+    <t>What does the State Chief Information Officer do?</t>
+  </si>
+  <si>
+    <t>Where can I find policies, standards, and guidelines for New York State technology policies?</t>
+  </si>
+  <si>
+    <t>How can an exception be granted for ITS policies and standards for technology use?</t>
+  </si>
+  <si>
     <t>Several projects are expected to be financed from multiple funding sources outside of the State budget.</t>
   </si>
   <si>
@@ -194,6 +254,44 @@
   </si>
   <si>
     <t>The total projected appropriation on programs for people with developmental disabilities in FY 2026 is 321,121 (thousands of dollars).</t>
+  </si>
+  <si>
+    <t>The telecommuting program is intended to provide the following benefits. Provide work life balance. Maintain an agency culture that supports employee flexibility. Promote resiliency during work site disruptions. Sustain the recruitment and retention of a high-quality workforce. Contribute to a cleaner environment, reducing operational and transportation costs and travel time.</t>
+  </si>
+  <si>
+    <t>An employee may request a review by the Telecommuting Appeal Board within five (5) business days.</t>
+  </si>
+  <si>
+    <t>An employee may reapply to participate in the telecommuting program no sooner than six months from the date of removal</t>
+  </si>
+  <si>
+    <t>ITS employees can participate in the Telecommuting program if they meet the following criteria.
+1. They must have satisfactory performance
+2. Have work tasks which do not require continued presence at their work site.
+3. The empolyees work performance can be quantified
+4. Employees productivity will not decrease when performing tasks at the alternate work site.
+5. Additional work will not be generated for co-workers
+6. Permissible resources can be transported between work sites.
+7. The employee will not violate any confidentiality agreement, policy, or compliance obligation</t>
+  </si>
+  <si>
+    <t>Telecommuting for ITS employees is either event driven, regularly scheduled, or with exception.</t>
+  </si>
+  <si>
+    <t>This program will sunset on June 30, 2025 but can be extended at the discretion of ITS.</t>
+  </si>
+  <si>
+    <t>The Bureau Director, or designee, determines which job functions are eligible to participate in this program.
+Determinations as to which job functions are eligible for telecommuting are final and cannot be appealed.</t>
+  </si>
+  <si>
+    <t>The State Chief Information Officer with the authority to oversee, direct and coordinate the establishment of information technology policies, protocols and standards for State government.</t>
+  </si>
+  <si>
+    <t>Statewide technology policies, standards, and guidelines may be found at the following website: https://its.ny.gov/policies</t>
+  </si>
+  <si>
+    <t>Exceptions are granted through the Chief Information Security Office exception process.</t>
   </si>
   <si>
     <t>Yes, some of the State's transformative infrastructure projects are financed outside of the State budget. This means that these projects receive funding from sources other than the State's regular budget. This can include funding from federal grants, public-private partnerships, or other external sources. By leveraging external funding, the State can potentially offset the cost of these large-scale projects, make them more financially viable, and avoid increasing taxes for residents.</t>
@@ -245,49 +343,117 @@
     <t>The total projected appropriation on programs for people with development disabilities in FY 2026 is 564,692 thousand dollars. This amount is the sum of various programs' funding for that fiscal year, as detailed in the provided document.</t>
   </si>
   <si>
+    <t>The ITS Telecommuting Program offers several benefits to its participants. Firstly, it provides flexibility to employees, allowing them to work from a location other than their official work site. This can be particularly beneficial for those who have childcare responsibilities, are elderly, or have disabilities, as it enables them to work at a time and place that suits their needs. Secondly, telecommuting can lead to increased productivity, as employees can work in an environment that is most conducive to their work style and preferences. Thirdly, it can help reduce operational costs for the agency, as it eliminates the need for employees to commute to and from work. Lastly, it can contribute to a better work-life balance, as employees can save time and money on commuting, and have more control over their work schedule.</t>
+  </si>
+  <si>
+    <t>An employee has ten business days to request a review by the Telecommuting Appeal Board after their application for telecommuting has been denied. This appeal process allows employees to present their case and additional information in hopes of overturning the decision. The ten-business-day timeframe provides the employee with sufficient opportunity to prepare and submit their appeal.</t>
+  </si>
+  <si>
+    <t>An employee who has been removed from the Telecommuting Program can reapply for participation no sooner than six months from the date of removal. This waiting period allows for reflection and improvement, ensuring that employees who were removed due to performance issues or other concerns have an opportunity to address those issues and demonstrate their commitment to the program and their job responsibilities.</t>
+  </si>
+  <si>
+    <t>The eligibility criteria for the ITS Telecommuting program include being a New York State employee, having work tasks or functions that do not require a continued presence at their official work site, and having satisfactory performance, as evidenced by a satisfactory performance evaluation, work product, time and attendance record, and a lack of recent disciplinary history or formal and informal counseling. Additionally, telecommuting should not result in additional work or shift changes for coworkers, and it must not violate any confidentiality agreements, policies, or compliance obligations.</t>
+  </si>
+  <si>
+    <t>The types of telecommuting for ITS employees include Event Driven, Regularly Scheduled, and Exceptions. Event Driven telecommuting is an occasional arrangement approved or directed by the Division Executive or their designee. Regularly Scheduled telecommuting involves a routine arrangement with a set schedule. Exceptions are telecommuting arrangements that exceed 50% of the telecommuter's regularly scheduled work hours in a pay period and are requested on a temporary and ad hoc basis, evaluated on a case-by-case basis.</t>
+  </si>
+  <si>
+    <t>The ITS Telecommuting program does not have an end date specified in the response. It is a program that allows eligible employees to work remotely under certain conditions, and its duration is determined by the agency's needs and the employee's performance. The program can be extended, modified, or terminated at any time at the discretion of the agency.</t>
+  </si>
+  <si>
+    <t>The New York State Office of Information Technology Services (ITS) determines which jobs will be part of the Telecommuting Program. This decision is made based on the agency's needs and the eligibility of the job functions. The Telecommuting Program is an alternate work arrangement that allows employees to conduct some of their work away from their official work site. The program is voluntary and open to all ITS employees whose job functions are deemed eligible by the Bureau Director or designee.</t>
+  </si>
+  <si>
+    <t>The State Chief Information Officer is responsible for overseeing, directing, and coordinating the establishment of information technology policies, protocols, and standards for the State government. This includes hardware, software, security, and business re-engineering. The specifics of their role can be found in the New York State Office of Information Technology Services (ITS) policies and standards, which are publicly available.</t>
+  </si>
+  <si>
+    <t>The policies, standards, and guidelines for New York State technology policies can be found on the official New York State Office of Information Technology Services (ITS) website. This centralized location ensures that you have access to the most up-to-date and accurate information regarding technology policies, standards, and guidelines within the New York State government.</t>
+  </si>
+  <si>
+    <t>To request an exception for ITS policies and standards for technology use, you should follow these steps:
+1. Identify the specific policy or standard that you would like to request an exception for.
+2. Understand the reasons behind your request, and be prepared to provide a clear justification.
+3. Determine the impact of granting the exception on your project or workload.
+4. Gather any necessary documentation or information to support your request.
+5. Submit your request to the appropriate exception process, which may involve filling out a form or sending an email to a designated address.
+6. Wait for a response from ITS, which may take some time.
+7. If your request is approved, follow any additional instructions or guidelines provided by ITS.
+It is important to note that not all requests for exceptions will be granted, and ITS may require additional information or documentation before making a decision. Additionally, exceptions may be granted on a temporary or permanent basis, and ITS may require updates or revisions to the exception request as needed.</t>
+  </si>
+  <si>
     <t>The model answer is in line with the reference answer, confirming that some of the State's transformative infrastructure projects are financed outside of the State budget. It also provides additional details about potential sources of external funding, which, while not present in the reference answer, do not contradict it and add value to the response.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer exactly in terms of the state share for the Gateway Tunnel Project. The additional details provided about the project do not detract from the accuracy of the response.</t>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer exactly and provides additional relevant information about the Gateway Tunnel Project.</t>
   </si>
   <si>
     <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about the roles and allocation of funds in these projects.</t>
   </si>
   <si>
-    <t>The model answer is mostly correct. It correctly identifies that a portion of the State's capital spending in FY 2025 is expected to be funded by Federal aid. However, it inaccurately states that this portion is 20 percent, while the reference answer indicates that it is 19 percent.</t>
-  </si>
-  <si>
-    <t>The model answer correctly states that capital spending is expected to increase in FY 2025, which aligns with the reference answer. However, it does not provide the specific percentage of increase as mentioned in the reference answer.</t>
-  </si>
-  <si>
-    <t>The model answer correctly identifies that the increase in state capital spending in FY 2025 is due to increased investments in economic development. It also correctly identifies that these investments are aimed at creating jobs, strengthening the economy, and generating economic opportunities. The model answer also adds details about the sectors that will be invested in, which aligns with the reference answer's mention of housing and transportation.</t>
-  </si>
-  <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer exactly in terms of the projected capital spending for the State in FY 2025.</t>
-  </si>
-  <si>
-    <t>The model answer is incorrect because it mentions different projects than those listed in the reference answer. The projects mentioned in the model answer are not mentioned in the reference answer and vice versa. Therefore, the model answer is not accurate or factual in relation to the reference answer.</t>
-  </si>
-  <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer exactly in terms of the amount allocated for the 'Bridge NY' program in the DOT Capital Plan. The additional details provided about the program and its purpose do not detract from the accuracy of the response.</t>
+    <t>The model answer is mostly correct. It correctly identifies that a portion of the State's capital spending in FY 2025 is expected to be funded by Federal aid. However, it inaccurately states that this portion is 20 percent, while the reference answer specifies that it is 19 percent.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies that capital spending is expected to increase in FY 2025, which aligns with the reference answer. However, it does not provide the specific percentage of increase as mentioned in the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer is in line with the reference answer, stating that the increase in state capital spending is due to increased investments in economic development. The model answer also adds more context by mentioning job creation, strengthening the economy, and generating economic opportunities. Although the model answer does not specifically mention the five-year capital plans for housing and transportation, it does mention investment in infrastructure and housing, which can be considered as part of these plans.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It directly answers the question and matches the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer is incorrect because it mentions different projects than those listed in the reference answer. The projects mentioned in the model answer are not mentioned in the reference answer, and vice versa.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies the amount allocated for the 'Bridge NY' program in the DOT Capital Plan, which matches the reference answer. It also provides additional context about the program and its purpose, which does not detract from the accuracy of the response.</t>
   </si>
   <si>
     <t>The model answer is incorrect because it states that 14% of the existing State-related debt is expected to be retired within 15 years, while the reference answer states that 59% of the existing debt is projected to be retired in 15 years.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It provides a detailed explanation of what 100% State-related debt retirement represents, aligning with the reference answer. It also adds more context and details about the implications of debt retirement, which enhances the understanding of the concept.</t>
-  </si>
-  <si>
-    <t>The model answer is mostly correct and factual. It correctly identifies that the rate of debt retirement impacts the State's financial situation, particularly in terms of interest payments and freeing up capital for other purposes. However, it does not specifically mention the impact on the State's ability to finance new capital projects, which is the focus of the reference answer.</t>
+    <t>The model answer is completely correct, accurate, and factual. It not only explains what 100% State-related debt retirement means, but also provides additional details about the implications of debt retirement, which are not mentioned in the reference answer but are still relevant and accurate.</t>
+  </si>
+  <si>
+    <t>The model answer is mostly correct and factual. It correctly identifies that the rate of debt retirement impacts the State's financial situation, particularly in terms of interest payments and freeing up capital for other purposes. However, it does not mention the impact on the State's ability to finance new capital projects, which is a key point in the reference answer.</t>
   </si>
   <si>
     <t>The model answer is incorrect. The reference answer states that the amount appropriated for Community Services Programs for people with development disabilities in FY 2026 is 57,945 (thousands of dollars), which is approximately 58 million dollars. The model answer incorrectly states that the amount is 74 million dollars.</t>
   </si>
   <si>
-    <t>The model answer is mostly correct. It accurately provides the appropriations for FY 2026 and FY 2027, but incorrectly states that the appropriation for FY 2025 is 1,000 thousand dollars, when the reference answer indicates it is 0.</t>
-  </si>
-  <si>
-    <t>The model answer is incorrect. The total projected appropriation on programs for people with developmental disabilities in FY 2026 is 321,121 (thousands of dollars), not 564,692 thousand dollars as stated in the model answer.</t>
+    <t>The model answer is mostly correct. It accurately provides the appropriations for FY 2026 and FY 2027. However, it incorrectly states that the appropriation for FY 2025 is 1,000 thousand dollars, while the reference answer indicates that it is 0.</t>
+  </si>
+  <si>
+    <t>The model answer is incorrect. The total projected appropriation on programs for people with development disabilities in FY 2026 according to the reference answer is 321,121 (thousands of dollars), not 564,692 thousand dollars as stated in the model answer.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies several benefits of the ITS Telecommuting Program, including work-life balance, flexibility, reduced operational costs, and increased productivity. It also adds some details not mentioned in the reference answer, such as the benefits for those with childcare responsibilities, the elderly, or those with disabilities. However, it does not mention the benefits of promoting resiliency during work site disruptions, sustaining the recruitment and retention of a high-quality workforce, and contributing to a cleaner environment.</t>
+  </si>
+  <si>
+    <t>The model answer is incorrect in terms of the time frame given for an employee to request a review by the Telecommuting Appeal Board. The reference answer states that an employee has five business days to request a review, while the model answer states that an employee has ten business days.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional context and details about the process of reapplying to the Telecommuting Program after removal.</t>
+  </si>
+  <si>
+    <t>The model answer is mostly correct and factual. It covers most of the points mentioned in the reference answer such as satisfactory performance, work tasks not requiring presence at the work site, no additional work for co-workers, and not violating any confidentiality agreement, policy, or compliance obligation. However, it misses out on the points about the employee's work performance being quantifiable, productivity not decreasing at the alternate work site, and permissible resources being transportable between work sites.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about each type of telecommuting.</t>
+  </si>
+  <si>
+    <t>The model answer is incorrect because it does not provide the specific end date of the ITS Telecommuting program, which is given in the reference answer as June 30, 2025. While the model answer correctly states that the program's duration can be modified or extended at the agency's discretion, it fails to provide the specific end date.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies that the decision of which jobs will be part of the Telecommuting Program is made by the Bureau Director or designee. It also adds relevant details about the program and its eligibility criteria, which aligns with the information provided in the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about the role of the State Chief Information Officer, including their responsibilities related to hardware, software, security, and business re-engineering.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies that the New York State Office of Information Technology Services (ITS) website is the place to find policies, standards, and guidelines for New York State technology policies. Although it does not provide the exact URL as the reference answer does, it still provides the correct and accurate information.</t>
+  </si>
+  <si>
+    <t>The model answer provides a detailed process for requesting an exception for ITS policies and standards for technology use. However, it does not mention the Chief Information Security Office exception process, which is the specific process mentioned in the reference answer. Therefore, while the model answer is generally accurate and factual, it is not completely correct because it does not include this specific detail.</t>
   </si>
   <si>
     <t>Yes, some of the State's transformative infrastructure projects are financed outside of the State budget. For example, the Gateway Tunnel Project has a total project cost of 16 billion dollars, with 1.3 billion dollars coming from the State's share and 14.7 billion dollars from other funding partners. Similarly, the MTA Capital Plan 2020-2024 has a total project cost of 52.1 billion dollars, with 3.1 billion dollars coming from the State's share and 49 billion dollars from other funding partners.</t>
@@ -339,10 +505,51 @@
     <t>The total projected appropriation on programs for people with development disabilities in FY 2026 is not explicitly stated in the provided context. The context only provides the projected appropriations for each program from FY 2025 to FY 2029, but it does not give a total for each fiscal year. Therefore, to find the total projected appropriation for programs for people with development disabilities in FY 2026, you would need to add up the projected appropriations for each program in that year.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It not only confirms that some of the State's transformative infrastructure projects are financed outside of the State budget, but also provides specific examples and details about the funding sources.</t>
-  </si>
-  <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer exactly and provides additional context and details about the Gateway Tunnel Project.</t>
+    <t>The ITS Telecommuting Program offers several benefits to its participants. Firstly, it aims to support a workforce strategy that optimizes productivity and performance, regardless of work site, when feasible and practicable. This flexibility can lead to increased employee satisfaction and work-life balance. Secondly, the program is designed to provide the necessary equipment and software for telecommuting, although ITS will not provide desks, chairs, file cabinets, or other office-related furniture. Thirdly, the use of personal devices for telecommuting requires Virtual Desktop Infrastructure (VDI), Virtual Private Network (VPN), or access to email, OneDrive, and/or SharePoint via Outlook Web Access, all of which require multifactor authentication. This ensures secure access to ITS resources. However, ITS will not be responsible for any hardware issues that may occur on personal devices because of the program. Lastly, the Telecommuting Program is completely voluntary, and every application will be considered on an individual basis. ITS reserves the right to approve, disapprove, modify, revoke, or suspend any individual's participation in this program.</t>
+  </si>
+  <si>
+    <t>An employee has five (5) business days to request a review by the Telecommuting Appeal Board if their Telecommuting application has been denied.</t>
+  </si>
+  <si>
+    <t>An employee who has been removed from the Telecommuting Program may reapply for participation no sooner than six months from the date of removal.</t>
+  </si>
+  <si>
+    <t>The eligibility criteria for the ITS Telecommuting program include ITS employees who meet the following conditions:
+1. **Job Function:** Telecommuting is not operationally feasible for all job functions. The Bureau Director, or their designee, determines which job functions are eligible to participate in this program.
+2. **Voluntary Participation:** The Telecommuting Program is completely voluntary, and every application will be considered on an individual basis.
+3. **Age:** There is no age requirement specified in the context.
+4. **Experience:** There is no experience requirement specified in the context.
+5. **Education:** There is no education requirement specified in the context.
+6. **Probationary Employees:** Probationary employees may be allowed to telecommute with supervisor approval.
+7. **Availability:** Telecommuters must be available via all required methods of communication throughout the workday.
+8. **Compliance:** Telecommuters must comply with all applicable ITS and NYS policies and standards while telecommuting.
+9. **Communication:** Telecommuters must maintain a professional demeanor and communicate effectively with colleagues, supervisors, and clients.
+10. **Workspace:** Telecommuters must have a dedicated, private workspace with appropriate equipment, supplies, security measures, communication means, and a safe work environment.
+It is important to note that the Bureau Director, or their designee, has the final authority to approve, modify, or revoke any individual's participation in the program. Determinations as to which job functions are eligible for telecommuting are final and cannot be appealed. The program is set to sunset on June 30, 2025, but this date can be extended at ITS's discretion. ITS will comply with any current or future obligations under collective bargaining agreements regarding telecommuting.</t>
+  </si>
+  <si>
+    <t>The two types of telecommuting for ITS employees are Event Driven and Regularly Scheduled. Event Driven telecommuting is an occasional arrangement approved by the Division Executive or their designee, while Regularly Scheduled telecommuting involves a set schedule. Additionally, there is an Exceptions category, which refers to telecommuting arrangements that exceed 50% of the telecommuter's regularly scheduled work hours in a pay period and are requested on a temporary and ad hoc basis. These Exceptions are evaluated on a case-by-case basis.</t>
+  </si>
+  <si>
+    <t>The ITS Telecommuting program will end on June 30, 2025. This information is provided in the context under the section "Program Duration and Extension." It states that the program will sunset on June 30, 2025, but can be extended at the discretion of ITS.</t>
+  </si>
+  <si>
+    <t>The Bureau Director, or designee, determines which job functions are eligible to participate in the ITS Telecommuting Program. This determination is final and cannot be appealed.</t>
+  </si>
+  <si>
+    <t>The State Chief Information Officer, as per Executive Order No. 117 established in January 2002, is responsible for overseeing and supervising the management and operations of ITS. This authority is further detailed in the NYS ITS Policy, NYS-P08-002 Authority to Establish Enterprise Information Technology (IT) Policies, Standards and Guidelines.</t>
+  </si>
+  <si>
+    <t>The policies, standards, and guidelines for New York State technology policies can be found at the following website: &lt;https://its.ny.gov/policies&gt;. This website is the official source for all ITS technology policies, and it should be used for any inquiries or requests for future enhancements to the policy.</t>
+  </si>
+  <si>
+    <t>An exception to ITS policies and standards for technology use can be granted through the Chief Information Security Office exception process. This process is designed to accommodate situations where strict adherence to the policies and standards is not feasible or technically possible, or if deviation from the policy is necessary to support a business function. The exception process involves submitting a request through the Chief Information Security Office exception form, providing justification for the exception, and outlining any necessary compensating controls to mitigate any associated risks. The request will then be reviewed and approved by the Chief Information Security Office, with the possibility of additional review by other ITS leadership as needed. It is important to note that exceptions are not granted lightly, and they are typically granted for a specific period of time. Additionally, exceptions may be required to comply with certain ITS policies and standards, depending on the nature of the exception and the associated risks.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It not only confirms that some of the State's transformative infrastructure projects are financed outside of the State budget, but also provides specific examples and details to support this statement.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies the State Share for the Gateway Tunnel Project as 1.3 billion dollars, which matches the reference answer. It also provides additional context and details about the project, which does not detract from the accuracy of the response.</t>
   </si>
   <si>
     <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about the funding partners for the State's transformative infrastructure projects.</t>
@@ -351,16 +558,16 @@
     <t>The model answer correctly identifies the percentage of State capital spending in FY 2025 that is expected to be supported from Federal aid, which matches the reference answer.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about the projected increase in capital spending for FY 2025.</t>
+    <t>The model answer is completely correct, accurate, and factual. It directly answers the question and aligns with the reference answer, providing the same information and even adding more details about the projected increase in capital spending for FY 2025.</t>
   </si>
   <si>
     <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about the average capital spending over the next five years.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly, providing the exact projected capital spending for the State in FY 2025.</t>
-  </si>
-  <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides the same information with additional details.</t>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer exactly in terms of the projected capital spending for the State in FY 2025.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides the same information about the new large scale projects in the Five-Year DOT capital plan.</t>
   </si>
   <si>
     <t>The model answer is identical to the reference answer, indicating that it is completely correct, accurate, and factual.</t>
@@ -369,16 +576,46 @@
     <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional context and details.</t>
   </si>
   <si>
-    <t>The model answer correctly explains that 100% State-related debt retirement represents the total amount of debt that the State expects to retire in a given fiscal year, which aligns with the reference answer's explanation that it refers to the full repayment of the principal for State-related debt. The model answer also adds relevant details about the context of the information, which does not detract from its accuracy.</t>
+    <t>The model answer is completely correct, accurate, and factual. It correctly explains that 100% State-related debt retirement represents the total amount of debt that the State expects to retire in a given fiscal year, which aligns with the reference answer's explanation that it refers to the full repayment of the principal for State-related debt.</t>
   </si>
   <si>
     <t>The model answer is completely correct, accurate, and factual. It not only matches the reference answer but also provides additional details about the impact of the rate of debt retirement on the State's operating budget and debt service burden.</t>
   </si>
   <si>
-    <t>The model answer does not provide the correct information. The reference answer indicates that there is a specific amount appropriated for Community Services Programs for people with developmental disabilities in FY 2026, while the model answer states that this information is not available.</t>
+    <t>The model answer does not provide the correct information. The reference answer states that 57,945 (thousands of dollars) is appropriated in FY 2026, while the model answer claims that the information cannot be determined from the provided context.</t>
   </si>
   <si>
     <t>The model answer does not provide the correct information. Instead of providing the total projected appropriation for FY 2026, it states that the information is not explicitly provided and would need to be calculated.</t>
+  </si>
+  <si>
+    <t>The model answer is mostly correct and factual. It provides a detailed explanation of the benefits of the ITS Telecommuting Program, including increased productivity, employee satisfaction, work-life balance, and secure access to ITS resources. However, it does not mention some benefits mentioned in the reference answer such as promoting resiliency during work site disruptions, contributing to a cleaner environment, reducing operational and transportation costs and travel time.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly, providing the same information that an employee has five business days to request a review by the Telecommuting Appeal Board if their application has been denied.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly, stating that an employee can reapply for the Telecommuting Program no sooner than six months from the date of removal.</t>
+  </si>
+  <si>
+    <t>The model answer provides a detailed and comprehensive list of eligibility criteria for the ITS Telecommuting program. However, it does not directly address some of the specific points mentioned in the reference answer, such as the need for satisfactory performance, the ability to quantify work performance, and the requirement that telecommuting should not generate additional work for co-workers. The model answer does cover the need for compliance with policies and confidentiality, the ability to work remotely without affecting productivity, and the need for tasks that do not require a physical presence at the work site, but these points are not as explicitly stated as in the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It correctly identifies the types of telecommuting for ITS employees as Event Driven, Regularly Scheduled, and Exceptions, which aligns with the reference answer. The model answer also provides additional details about each type of telecommuting, which adds to its accuracy and completeness.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides the exact date when the ITS Telecommuting program will end. It also adds relevant details about the program's potential extension.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer in stating that the Bureau Director, or designee, determines which job functions are eligible to participate in the ITS Telecommuting Program and that this determination is final and cannot be appealed.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It provides a detailed explanation of the role of the State Chief Information Officer, which aligns with the reference answer. The model answer also adds more context and details, which enhances the understanding of the role.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It provides the exact location where the New York State technology policies, standards, and guidelines can be found, which aligns perfectly with the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It provides a detailed explanation of the process of granting an exception to ITS policies and standards for technology use, which aligns with the reference answer.</t>
   </si>
   <si>
     <t>Yes, some of the State's transformative infrastructure projects are financed outside of the State budget. The context specifies that several projects are expected to be financed from multiple funding sources and administered by public authorities (e.g., MTA, PANYNJ) outside of the State budget. Funding partners for these projects include the State, local governments, the Federal government, public authorities, and private entities.</t>
@@ -427,46 +664,102 @@
     <t>The total projected appropriation on programs for people with development disabilities in FY 2026 is $12,522 thousand. This information can be found in the "People with Developmental Disabilities, Office for PROJECTED APPROPRIATIONS AND DISBURSEMENTS BY PROGRAM FY 2025 THROUGH FY 2029 (thousands of dollars)" table, where the row for FY 2026 shows a total appropriation of $12,522 thousand.</t>
   </si>
   <si>
+    <t>The ITS Telecommuting Program offers several benefits, as outlined in the policy document. These benefits include:
+1. Supporting a workforce strategy that optimizes productivity and performance, regardless of work site, when feasible and practicable.
+2. Providing the necessary equipment and software for telecommuting, within reason.
+3. Enabling the use of Virtual Desktop Infrastructure (VDI), Virtual Private Network (VPN), or access to email, OneDrive, and/or SharePoint via Outlook Web Access, all of which require multifactor authentication.
+4. Allowing for a more flexible work arrangement that can contribute to a better work-life balance.
+However, it is important to note that the ITS Telecommuting Program is completely voluntary, and not all job functions are eligible for telecommuting. The program also requires telecommuters to keep their personal devices functioning and to request and test any necessary software and authentication tokens prior to telecommuting. ITS will not be responsible for any hardware issues that may occur on personal devices because of the program.</t>
+  </si>
+  <si>
+    <t>The employee has five (5) business days to request a review by the Telecommuting Appeal Board if their Telecommuting application has been denied.</t>
+  </si>
+  <si>
+    <t>The eligibility criteria for the ITS Telecommuting program includes being an ITS employee, meeting the criteria outlined in Section 4.2, and having a job function that is determined by the Bureau Director or designee to be eligible for telecommuting.</t>
+  </si>
+  <si>
+    <t>The types of telecommuting for ITS employees are Event Driven and Regularly Scheduled. Event Driven is an occasional telecommuting arrangement that is infrequent and not regularly scheduled, approved or directed by the Division Executive or their designee. Regularly Scheduled is a routine telecommuting arrangement with a set schedule.</t>
+  </si>
+  <si>
+    <t>The ITS Telecommuting program will end on June 30, 2025, as stated in the provided context.</t>
+  </si>
+  <si>
+    <t>The Bureau Director, or designee, determines which job functions are eligible to participate in the Telecommuting Program. This information is provided in the context under "The Bureau Director, or designee, determines which job functions are eligible to participate in this program."</t>
+  </si>
+  <si>
+    <t>The State Chief Information Officer, as established by Executive Order No. 117 1 and further detailed in NYS ITS Policy, NYS-P08-002, is responsible for overseeing and supervising the management and operations of ITS. This includes the administration of ITS, as outlined in Section 102(2) of the State Technology Law.</t>
+  </si>
+  <si>
+    <t>The policies, standards, and guidelines for New York State technology policies can be found at the following website: &lt;https://its.ny.gov/policies&gt;.</t>
+  </si>
+  <si>
+    <t>An exception to ITS policies and standards for technology use can be granted on a temporary and ad-hoc basis, as stated in the context. This approval must be obtained from the supervisor and the second level supervisor within a single pay period. If an exception is needed beyond a single pay period, employees are encouraged to utilize other available benefits, as mentioned in the text.</t>
+  </si>
+  <si>
     <t>The model answer is completely correct, accurate, and factual. It directly answers the question and aligns with the reference answer, while providing additional details about the funding sources and entities involved in financing the State's transformative infrastructure projects outside of the State budget.</t>
   </si>
   <si>
     <t>The model answer correctly identifies the State Share for the Gateway Tunnel Project as $1.3 billion, which matches the reference answer. It also provides additional context and details about the project's funding, which does not detract from the accuracy of the response.</t>
   </si>
   <si>
-    <t>The model answer correctly identifies all the funding partners for the State's transformative infrastructure projects as mentioned in the reference answer. It also provides additional details about specific projects that these entities are funding, which adds value to the response.</t>
-  </si>
-  <si>
-    <t>The model answer is completely correct, accurate, and factual. It directly answers the question and aligns with the reference answer, providing the same information and adding more details about the expected increase in capital spending in FY 2025.</t>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about specific projects that these entities are funding.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about the projected increase in capital spending for FY 2025.</t>
   </si>
   <si>
     <t>The model answer correctly identifies the reasons for the projected increase in State capital spending in FY 2025, which are increased investments in economic development and the continuation of the five-year capital plans for housing and transportation. The model answer is in line with the reference answer and provides additional context and details.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer exactly, providing the same projected capital spending for the State in FY 2025.</t>
-  </si>
-  <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides the same information about the new large-scale projects in the Five-Year DOT capital plan.</t>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly and provides the same information about the new large-scale projects in the Five-Year DOT capital plan.</t>
   </si>
   <si>
     <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly and provides additional context and details.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It correctly explains that 100% State-related debt retirement represents the total amount of debt that the State expects to retire. It also adds more details about the projected amount and the factors contributing to the lower retirement amount in FY 2025, which are not present in the reference answer but do not detract from the correctness of the response.</t>
+    <t>The model answer is completely correct, accurate, and factual. It correctly explains that 100% State-related debt retirement represents the total amount of debt that the State expects to retire in a given fiscal year. It also adds more details about the projected amount and the factors contributing to this amount, which are not present in the reference answer but do not contradict it.</t>
   </si>
   <si>
     <t>The model answer is completely correct, accurate, and factual. It not only matches the reference answer but also provides additional details about the impact of the rate of debt retirement on the State, such as freeing up the State's debt capacity and increasing debt service costs.</t>
   </si>
   <si>
-    <t>The model answer does not provide the specific information asked in the question. While it correctly states that the specific budget allocations for FY 2026 would need to be referred to, it does not provide the actual figure that was asked for.</t>
-  </si>
-  <si>
-    <t>The model answer is incorrect. The projected appropriations provided in the model answer do not match the reference answer. The model answer states that the appropriations for FY 2025, FY 2026, and FY 2027 are $10,000, $11,000, and $12,000 respectively, while the reference answer states that the appropriations are 0, 1,000, and 1,000 in thousands of dollars for the same years.</t>
-  </si>
-  <si>
-    <t>The model answer is incorrect. The reference answer states that the total projected appropriation on programs for people with developmental disabilities in FY 2026 is 321,121 (thousands of dollars), while the model answer states it as $12,522 thousand, which is a significant discrepancy.</t>
-  </si>
-  <si>
-    <t>Yes, some of the State's transformative infrastructure projects are financed from multiple funding sources and administered by public authorities outside of the State budget. These funding partners include the State itself, local governments, the Federal government, public authorities, and private entities.</t>
+    <t>The model answer does not provide the specific information asked in the question. The question asks for a specific amount for FY 2026, which the model answer does not provide. Instead, it suggests referring to specific budget allocations for that year within a given financial framework.</t>
+  </si>
+  <si>
+    <t>The model answer provides incorrect figures for the projected appropriations from FY 2025 to FY 2027 for Non-Bondable Projects for people with developmental disabilities. The reference answer states that the appropriations are 0 in FY 2025, 1,000 in FY 2026, and 1,000 in FY 2027, in thousands of dollars, while the model answer states that the appropriations are $10,000 in FY 2025, $11,000 in FY 2026, and $12,000 in FY 2027.</t>
+  </si>
+  <si>
+    <t>The model answer is incorrect. The reference answer states that the total projected appropriation on programs for people with developmental disabilities in FY 2026 is 321,121 (thousands of dollars), while the model answer states it as $12,522 thousand, which is a significant difference.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies several benefits of the ITS Telecommuting Program, such as providing necessary equipment and software, enabling the use of various technologies, and allowing for a more flexible work arrangement. However, it does not mention some benefits listed in the reference answer, such as promoting resiliency during work site disruptions, contributing to a cleaner environment, and reducing operational and transportation costs and travel time.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly, stating that an employee has five business days to request a review by the Telecommuting Appeal Board if their application has been denied.</t>
+  </si>
+  <si>
+    <t>The model answer is somewhat correct as it mentions that the employee must be an ITS employee and meet certain criteria. However, it does not provide the specific details outlined in the reference answer such as satisfactory performance, work tasks not requiring continued presence at the work site, quantifiable work performance, maintained productivity, no additional work for co-workers, transportable resources, and no violation of confidentiality or compliance obligations.</t>
+  </si>
+  <si>
+    <t>The model answer is mostly correct and factual. It correctly identifies two types of telecommuting for ITS employees: Event Driven and Regularly Scheduled. However, it misses the 'with exception' type mentioned in the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies the end date of the ITS Telecommuting program as June 30, 2025, which matches the reference answer. However, it does not mention the possibility of extension at the discretion of ITS.</t>
+  </si>
+  <si>
+    <t>The model answer correctly identifies that the Bureau Director, or designee, determines which job functions are eligible to participate in the Telecommuting Program. It matches the reference answer closely, but it does not include the information about the finality and non-appealability of the determinations.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It provides a detailed explanation of the role of the State Chief Information Officer, which aligns with the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It provides the exact information as the reference answer, pointing to the same website for New York State technology policies.</t>
+  </si>
+  <si>
+    <t>The model answer is incorrect because it does not mention the Chief Information Security Office exception process, which is the correct process for granting exceptions according to the reference answer. Instead, it talks about obtaining approval from supervisors, which is not mentioned in the reference answer.</t>
+  </si>
+  <si>
+    <t>Yes, several of the State's transformative infrastructure projects are expected to be financed from multiple funding sources and administered by public authorities outside of the State budget. These funding partners include the State, local governments, the Federal government, public authorities, and private entities.</t>
   </si>
   <si>
     <t>The State Share for the Gateway Tunnel Project is $1.3 billion.</t>
@@ -475,34 +768,64 @@
     <t>The funding partners for the State's transformative infrastructure projects include the State itself, local governments, the Federal government, public authorities, and private entities.</t>
   </si>
   <si>
-    <t>Yes, capital spending in FY 2025 is projected to increase by $2.9 billion or 20 percent from FY 2024.</t>
-  </si>
-  <si>
-    <t>State capital spending is projected to increase in FY 2025 primarily due to increased investments in economic development, as well as the continuation of the five-year capital plans for housing and transportation.</t>
-  </si>
-  <si>
-    <t>The new large-scale projects in the Five-Year DOT capital plan include: modernizing the Livingston Avenue Bridge in Albany; reconnecting neighborhoods across the Kensington Expressway in Buffalo; converting Route 17 to I-86 in Orange and Sullivan counties; and assessing ways to improve road capacity at the Oakdale Merge in Suffolk County.</t>
+    <t>Yes, capital spending is projected to increase by $2.9 billion or 20 percent in FY 2025 from FY 2024.</t>
+  </si>
+  <si>
+    <t>State capital spending is projected to increase in FY 2025 primarily due to increased investments in economic development, and continuation of the five-year capital plans for housing and transportation.</t>
+  </si>
+  <si>
+    <t>The new large-scale projects in the Five-Year DOT capital plan include modernizing the Livingston Avenue Bridge in Albany; reconnecting neighborhoods across the Kensington Expressway in Buffalo; converting Route 17 to I-86 in Orange and Sullivan Counties; and assessing ways to improve road capacity at the Oakdale Merge in Suffolk County.</t>
   </si>
   <si>
     <t>59%</t>
   </si>
   <si>
-    <t>100% State-related debt retirement represents the complete pay off of a state's outstanding debt. It implies that the State has completely paid off its liabilities and no longer has any outstanding debt associated with it. This would have an impact on the State's ability to finance new capital projects, as it would free up debt capacity. However, retiring debt more quickly can increase the State's debt service burden at the expense of other purposes.</t>
-  </si>
-  <si>
-    <t>The rate at which debt is retired or paid off impacts the State's ability to finance new capital projects. If the State retires debt relatively faster, it frees up debt capacity, allowing it to take on more debt for new projects. However, this also increases debt service costs in the State's operating budget, meaning more of the budget is used for paying off debt rather than other purposes. Over time, retiring debt more quickly increases the State's debt service burden.</t>
-  </si>
-  <si>
-    <t>The text doesn't provide specific information on the amount that will be appropriated on Community Services Programs for people with developmental disabilities in FY 2026.</t>
-  </si>
-  <si>
-    <t>I'm sorry, but I can't provide the information you're looking for because the text doesn't include specific details about the projected appropriations from FY 2025 to FY 2027 for Non-Bondable Projects for people with developmental disabilities.</t>
-  </si>
-  <si>
-    <t>The document does not provide specific figures for the total projected appropriation on programs for people with developmental disabilities in FY 2026.</t>
-  </si>
-  <si>
-    <t>The model answer is in line with the reference answer, stating that some of the State's transformative infrastructure projects are financed from multiple funding sources outside of the State budget. It also provides additional details about the funding partners, which adds value to the response without deviating from the core information.</t>
+    <t>100% State-related debt retirement represents the condition when all the State's debts have been paid off or retired. This would mean the State has no outstanding debts.</t>
+  </si>
+  <si>
+    <t>The rate of debt retirement impacts the State's ability to finance new capital projects. If the State retires debt more quickly, it frees up debt capacity, but also increases debt service costs in the State operating budget. Over time, retiring debt more quickly increases the State's debt service burden at the expense of other purposes.</t>
+  </si>
+  <si>
+    <t>The document does not provide specific information on the amount that will be appropriated on Community Services Programs for people with developmental disabilities in FY 2026.</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I can't provide the information you're looking for because the text doesn't include specific figures for the projected appropriations from FY 2025 to FY 2027 for Non-Bondable Projects for people with developmental disabilities.</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I can't provide the information you're looking for. The text doesn't include specific data or figures for the projected appropriations in FY 2026.</t>
+  </si>
+  <si>
+    <t>The ITS Telecommuting Program is intended to support a workforce strategy that enhances productivity and performance, regardless of the work site, when feasible and practicable. This includes the provision of necessary equipment and software for telecommuting, within reason. However, the program does not provide desks, chairs, file cabinets, or other office-related furniture.</t>
+  </si>
+  <si>
+    <t>An employee can reapply for the Telecommuting Program no sooner than six months from the date of removal.</t>
+  </si>
+  <si>
+    <t>The eligibility criteria for the ITS Telecommuting Program include that all ITS employees may be eligible if the employee meets certain criteria. However, the specific criteria are not explicitly mentioned in the given context. It's mentioned that the program is completely voluntary and every application will be considered individually. ITS reserves the right to approve, disapprove, modify, revoke, or suspend any individual's participation. Not all job functions are operationally feasible for telecommuting and the Bureau Director, or their designee, determines which job functions are eligible. Determinations regarding eligibility for telecommuting are final and cannot be appealed. The program will end on June 30, 2025, but can be extended at the discretion of ITS.</t>
+  </si>
+  <si>
+    <t>The types of telecommuting for ITS employees are:
+1. Event Driven - This is an occasional telecommuting arrangement that is infrequent and not regularly scheduled.
+2. Regularly Scheduled - This is a routine telecommuting arrangement with a set schedule.
+3. Exceptions - This is a telecommuting arrangement that exceeds 50% of the telecommuter's regularly scheduled work hours in a pay period and requested on a temporary and adhoc basis.</t>
+  </si>
+  <si>
+    <t>The ITS Telecommuting program is scheduled to end on June 30, 2025. However, it can be extended at the discretion of ITS.</t>
+  </si>
+  <si>
+    <t>The Bureau Director, or their designee, determines which job functions are eligible to participate in the Telecommuting Program.</t>
+  </si>
+  <si>
+    <t>The State Chief Information Officer is charged with overseeing and supervising the management and operations of ITS (Information Technology Services) as per Section 1 of Executive Order No. 117 1, established in January 2002.</t>
+  </si>
+  <si>
+    <t>You can find policies, standards, and guidelines for New York State technology policies on the following website: https://its.ny.gov/policies</t>
+  </si>
+  <si>
+    <t>An exception to the 50% telecommuting schedule may be allowed on a temporary and ad-hoc basis with the approval of the supervisor and second level supervisor within a single pay period. If an exception is needed beyond a single pay period, employees are encouraged to contact Human Resources to utilize other available benefits. However, even with an exception, under no circumstance may ITS data or information be transferred to or stored on any personal devices, and an ITS issued device cannot be used by anyone not authorized to use the device for official state business.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about the various funding sources for the State's transformative infrastructure projects.</t>
   </si>
   <si>
     <t>The model answer is identical to the reference answer, providing the same information about the State Share for the Gateway Tunnel Project.</t>
@@ -511,25 +834,55 @@
     <t>The model answer is in complete alignment with the reference answer, providing the same information about the funding partners for the State's transformative infrastructure projects.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly, providing the same reasons for the projected increase in State capital spending in FY 2025.</t>
-  </si>
-  <si>
-    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly and provides the same information about the new large-scale projects in the Five-Year DOT capital plan.</t>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional detail about the projected increase in capital spending.</t>
+  </si>
+  <si>
+    <t>The model answer is in line with the reference answer, providing the same reasons for the projected increase in State capital spending in FY 2025. Both answers mention increased investments in economic development and the continuation of the five-year capital plans for housing and transportation.</t>
+  </si>
+  <si>
+    <t>The model answer is identical to the reference answer, providing the same information about the DOT Capital Plan's allocation for the 'Bridge NY' program.</t>
   </si>
   <si>
     <t>The model answer is completely correct, accurate, and factual. It matches the reference answer exactly.</t>
   </si>
   <si>
-    <t>The model answer is completely correct, accurate, and factual. It correctly explains that 100% State-related debt retirement represents the complete pay off of a state's outstanding debt, which aligns with the reference answer. The model answer also provides additional details about the implications of such a situation, which adds to its quality.</t>
-  </si>
-  <si>
-    <t>The model answer failed to provide the specific information that was given in the reference answer. The reference answer provided a specific amount that will be appropriated in FY 2026, while the model answer stated that the text doesn't provide specific information.</t>
-  </si>
-  <si>
-    <t>The model answer does not provide the specific information asked for in the question. The reference answer provides specific appropriations for each fiscal year, which the model answer does not provide.</t>
-  </si>
-  <si>
-    <t>The model answer is incorrect because it states that there are no specific figures available for the total projected appropriation on programs for people with developmental disabilities in FY 2026, while the reference answer provides a specific figure.</t>
+    <t>The model answer is completely correct, accurate, and factual. It correctly explains that 100% State-related debt retirement means all the State's debts have been paid off or retired, which aligns with the reference answer that it means the State expects to fully repay the principal for State-related debt.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It not only matches the reference answer but also provides additional details about how the rate of debt retirement affects the state's operating budget and debt service burden.</t>
+  </si>
+  <si>
+    <t>The model answer does not provide the correct information. The reference answer indicates that there is a specific amount appropriated for Community Services Programs for people with developmental disabilities in FY 2026, which the model answer fails to mention.</t>
+  </si>
+  <si>
+    <t>The model answer failed to provide the specific figures for the projected appropriations from FY 2025 to FY 2027 for Non-Bondable Projects for people with developmental disabilities, which were provided in the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer failed to provide the specific information asked in the question. The reference answer indicates that the information is available, but the model answer incorrectly stated that it couldn't provide the data.</t>
+  </si>
+  <si>
+    <t>The model answer is somewhat correct. It correctly identifies that the ITS Telecommuting Program is designed to enhance productivity and performance, and it provides necessary equipment and software. However, it does not mention other benefits such as work-life balance, employee flexibility, resiliency during work site disruptions, recruitment and retention of a high-quality workforce, and environmental benefits.</t>
+  </si>
+  <si>
+    <t>The model answer is somewhat correct and accurate. It correctly mentions that ITS employees may be eligible for the telecommuting program and that the program is voluntary. However, it does not provide the specific criteria that the reference answer lists, such as satisfactory performance, work tasks not requiring presence at the work site, quantifiable work performance, etc.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer and provides additional details about each type of telecommuting for ITS employees.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer perfectly, providing the same end date for the ITS Telecommuting program and noting the possibility of extension.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It matches the reference answer in stating that the Bureau Director or their designee determines which job functions are eligible for the Telecommuting Program.</t>
+  </si>
+  <si>
+    <t>The model answer is mostly correct and factual. It correctly identifies the role of the State Chief Information Officer as overseeing and supervising the management and operations of Information Technology Services. However, it does not mention the establishment of information technology policies, protocols and standards for State government, which is included in the reference answer.</t>
+  </si>
+  <si>
+    <t>The model answer is completely correct, accurate, and factual. It correctly identifies the website where one can find policies, standards, and guidelines for New York State technology policies.</t>
+  </si>
+  <si>
+    <t>The model answer is mostly incorrect. It talks about an exception to a telecommuting schedule, which is not related to the question about exceptions for ITS policies and standards for technology use. The reference answer mentions that exceptions are granted through the Chief Information Security Office exception process, which is not mentioned in the model answer.</t>
   </si>
 </sst>
 </file>
@@ -887,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1125,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1170,15 +1523,185 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>4.266666666666667</v>
+        <v>4</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>3.8</v>
+      </c>
+      <c r="C27">
+        <v>4.52</v>
+      </c>
+      <c r="D27">
+        <v>4.12</v>
+      </c>
+      <c r="E27">
         <v>4.2</v>
       </c>
     </row>
@@ -1189,7 +1712,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1197,28 +1720,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1226,28 +1749,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1255,28 +1778,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1284,28 +1807,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1313,28 +1836,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1342,28 +1865,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1371,28 +1894,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1400,28 +1923,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1429,28 +1952,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1458,28 +1981,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1487,28 +2010,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1516,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1545,28 +2068,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1574,28 +2097,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1603,28 +2126,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1632,28 +2155,318 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1671,28 +2484,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1700,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1720,19 +2533,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1740,19 +2553,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1760,19 +2573,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1780,19 +2593,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1800,19 +2613,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1820,19 +2633,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1840,19 +2653,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1860,19 +2673,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1880,19 +2693,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1900,19 +2713,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1920,19 +2733,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1940,19 +2753,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1960,19 +2773,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1980,19 +2793,219 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +3015,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2010,28 +3023,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2039,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2059,19 +3072,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2079,19 +3092,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2099,19 +3112,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2119,19 +3132,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2139,19 +3152,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2159,19 +3172,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2179,19 +3192,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2199,19 +3212,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2219,19 +3232,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2239,19 +3252,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2259,19 +3272,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2279,19 +3292,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2299,19 +3312,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2319,19 +3332,219 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
